--- a/ClosedXML.Tests/Resource/Examples/Misc/HideSheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/HideSheets.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,7 +363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -439,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/HideSheets.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/HideSheets.xlsx
@@ -6,11 +6,11 @@
     <x:workbookView firstSheet="1" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="First Hidden" sheetId="2" state="hidden" r:id="rId2"/>
-    <x:sheet name="Visible" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Unhidden" sheetId="4" r:id="rId4"/>
-    <x:sheet name="VeryHidden" sheetId="5" state="veryHidden" r:id="rId5"/>
-    <x:sheet name="Last Hidden" sheetId="6" state="hidden" r:id="rId6"/>
+    <x:sheet name="First Hidden" sheetId="1" state="hidden" r:id="rId2"/>
+    <x:sheet name="Visible" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Unhidden" sheetId="3" r:id="rId4"/>
+    <x:sheet name="VeryHidden" sheetId="4" state="veryHidden" r:id="rId5"/>
+    <x:sheet name="Last Hidden" sheetId="5" state="hidden" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
